--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1385.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1385.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.319951831028082</v>
+        <v>1.19725239276886</v>
       </c>
       <c r="B1">
-        <v>2.527252131060099</v>
+        <v>2.347532749176025</v>
       </c>
       <c r="C1">
-        <v>3.205143253899627</v>
+        <v>6.828729629516602</v>
       </c>
       <c r="D1">
-        <v>3.451719809302745</v>
+        <v>2.322959423065186</v>
       </c>
       <c r="E1">
-        <v>1.059820162194282</v>
+        <v>1.183044075965881</v>
       </c>
     </row>
   </sheetData>
